--- a/data/trans_orig/P14B97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBBCE2C-350A-437C-A44C-D15B6ED31D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2ACA703-C9D2-4C26-9127-F5DA3EADFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DBC6C05-3D7E-4FF1-8EAD-927E6EAC257E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDF0B09-D6CC-40FF-92D1-B64BA3A31448}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="469">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
   </si>
   <si>
     <t>57,68%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,1300 +145,1306 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
   </si>
   <si>
     <t>42,1%</t>
   </si>
   <si>
-    <t>25,63%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
+    <t>58,87%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>59,57%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>40,43%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F39D23-43D3-43F8-93A6-C55F5A7907E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECE1C1-0D6D-4751-BC60-F84957C4D79E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3044,10 +3050,10 @@
         <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3056,13 +3062,13 @@
         <v>17386</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3071,13 +3077,13 @@
         <v>20646</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3098,13 @@
         <v>6011</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3107,13 +3113,13 @@
         <v>18195</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3122,13 +3128,13 @@
         <v>24206</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3202,13 @@
         <v>61491</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -3211,13 +3217,13 @@
         <v>94798</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -3226,13 +3232,13 @@
         <v>156289</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3253,13 @@
         <v>54313</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -3262,13 +3268,13 @@
         <v>127859</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>172</v>
@@ -3363,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F718BBD2-9D39-4CE0-9440-91968A78DB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44503E9C-7297-408E-8859-E210C8DDF623}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,7 +3994,7 @@
         <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4009,13 @@
         <v>11681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4018,13 +4024,13 @@
         <v>33034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4033,13 +4039,13 @@
         <v>44715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>2739</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4122,13 +4128,13 @@
         <v>8961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4140,10 +4146,10 @@
         <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4164,13 @@
         <v>3807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4173,13 +4179,13 @@
         <v>10839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4191,10 +4197,10 @@
         <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4268,13 @@
         <v>16281</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4277,13 +4283,13 @@
         <v>18543</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4292,13 +4298,13 @@
         <v>34824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4319,13 @@
         <v>6590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4328,13 +4334,13 @@
         <v>12149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -4343,13 +4349,13 @@
         <v>18739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4423,13 @@
         <v>6451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4432,13 +4438,13 @@
         <v>19145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4447,13 +4453,13 @@
         <v>25596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4474,13 @@
         <v>6426</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -4483,13 +4489,13 @@
         <v>30616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4498,13 +4504,13 @@
         <v>37042</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4578,13 @@
         <v>16229</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -4587,13 +4593,13 @@
         <v>34354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4602,13 +4608,13 @@
         <v>50583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4629,13 @@
         <v>13558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -4638,13 +4644,13 @@
         <v>33839</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4653,13 +4659,13 @@
         <v>47397</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4733,13 @@
         <v>76339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -4742,13 +4748,13 @@
         <v>132372</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>191</v>
@@ -4757,13 +4763,13 @@
         <v>208711</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4784,13 @@
         <v>54970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
@@ -4793,13 +4799,13 @@
         <v>169867</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>210</v>
@@ -4808,13 +4814,13 @@
         <v>224836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3129D9-0066-43BC-9370-EBAC15E7D7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6DB1A-179A-423F-A67F-5F251AD2AB1B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4911,7 +4917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5018,13 +5024,13 @@
         <v>13675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5033,13 +5039,13 @@
         <v>10957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5051,10 +5057,10 @@
         <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5075,13 @@
         <v>7859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5084,13 +5090,13 @@
         <v>8369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5102,10 +5108,10 @@
         <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5179,13 @@
         <v>26628</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -5188,13 +5194,13 @@
         <v>33976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5203,13 +5209,13 @@
         <v>60604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>12196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5239,7 +5245,7 @@
         <v>13272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>346</v>
@@ -5674,7 +5680,7 @@
         <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5728,7 @@
         <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>400</v>
@@ -5826,10 +5832,10 @@
         <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5850,13 @@
         <v>15266</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -5859,13 +5865,13 @@
         <v>18873</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -5874,13 +5880,13 @@
         <v>34140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5954,13 @@
         <v>16800</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5963,13 +5969,13 @@
         <v>35775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -5978,13 +5984,13 @@
         <v>52576</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6005,13 @@
         <v>21925</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -6014,13 +6020,13 @@
         <v>27108</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6029,13 +6035,13 @@
         <v>49033</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6109,13 @@
         <v>27100</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -6118,13 +6124,13 @@
         <v>31925</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -6133,13 +6139,13 @@
         <v>59024</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6160,13 @@
         <v>29659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -6261,10 +6267,10 @@
         <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6273,13 +6279,13 @@
         <v>209775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>514</v>
@@ -6288,13 +6294,13 @@
         <v>366639</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6315,13 @@
         <v>134749</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>256</v>
@@ -6324,13 +6330,13 @@
         <v>169446</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M29" s="7">
         <v>415</v>
@@ -6339,13 +6345,13 @@
         <v>304195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2ACA703-C9D2-4C26-9127-F5DA3EADFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0EBB0C-755A-4623-8343-577E02E4FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDF0B09-D6CC-40FF-92D1-B64BA3A31448}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C95701AA-976D-41BB-8437-1BB65276A834}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="473">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>57,68%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>42,1%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>57,9%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>50,16%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>50,69%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>48,95%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
   </si>
   <si>
     <t>49,31%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -268,19 +268,19 @@
     <t>29,0%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>40,64%</t>
@@ -295,19 +295,19 @@
     <t>71,0%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,55 +316,49 @@
     <t>55,23%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>77,4%</t>
   </si>
   <si>
     <t>55,62%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>44,2%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>22,6%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -373,55 +367,55 @@
     <t>43,44%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -430,217 +424,223 @@
     <t>35,16%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>48,86%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>46,03%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>53,97%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>46,18%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>53,82%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
+    <t>Población cuya otra enfermedad le limita 1 en 2016 (Tasa respuesta: 6,1%)</t>
   </si>
   <si>
     <t>58,0%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>51,03%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>48,97%</t>
   </si>
   <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -649,19 +649,19 @@
     <t>43,41%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>0%</t>
@@ -673,616 +673,628 @@
     <t>56,59%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>52,57%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>40,95%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>58,15%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>61,79%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
   </si>
   <si>
     <t>43,38%</t>
@@ -1856,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECE1C1-0D6D-4751-BC60-F84957C4D79E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12081E1F-4DC8-4C9A-9CFE-A79DA59491A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2755,10 +2767,10 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2767,13 +2779,13 @@
         <v>19191</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2800,13 @@
         <v>4957</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2803,13 +2815,13 @@
         <v>10357</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2818,13 +2830,13 @@
         <v>15314</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,7 +2892,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2892,13 +2904,13 @@
         <v>11955</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2907,13 +2919,13 @@
         <v>16576</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2922,13 +2934,13 @@
         <v>28531</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2955,13 @@
         <v>15563</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -2958,13 +2970,13 @@
         <v>34850</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -2973,13 +2985,13 @@
         <v>50413</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3047,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3059,13 @@
         <v>3260</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3062,13 +3074,13 @@
         <v>17386</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3077,13 +3089,13 @@
         <v>20646</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3110,13 @@
         <v>6011</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3369,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44503E9C-7297-408E-8859-E210C8DDF623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21984828-8A2D-4346-84F7-B826288D86BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4423,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4450,13 @@
         <v>19145</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4453,13 +4465,13 @@
         <v>25596</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4486,13 @@
         <v>6426</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -4489,13 +4501,13 @@
         <v>30616</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4504,13 +4516,13 @@
         <v>37042</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4578,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4578,13 +4590,13 @@
         <v>16229</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -4593,13 +4605,13 @@
         <v>34354</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4608,13 +4620,13 @@
         <v>50583</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4641,13 @@
         <v>13558</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -4900,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6DB1A-179A-423F-A67F-5F251AD2AB1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573C9FB4-839B-4889-A904-AEAB64BDD705}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,13 +5206,13 @@
         <v>33976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5209,13 +5221,13 @@
         <v>60604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5242,13 @@
         <v>12196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5245,13 +5257,13 @@
         <v>13272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5260,13 +5272,13 @@
         <v>25468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5346,13 @@
         <v>19939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5349,13 +5361,13 @@
         <v>27115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5367,10 +5379,10 @@
         <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5397,13 @@
         <v>26655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5400,13 +5412,13 @@
         <v>32234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -5418,10 +5430,10 @@
         <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5501,13 @@
         <v>35181</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -5504,13 +5516,13 @@
         <v>48099</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -5519,13 +5531,13 @@
         <v>83279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5552,13 @@
         <v>16039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5555,13 +5567,13 @@
         <v>34288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5570,13 +5582,13 @@
         <v>50328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5656,13 @@
         <v>2739</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5659,13 +5671,13 @@
         <v>4443</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5674,10 +5686,10 @@
         <v>7182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
@@ -5695,13 +5707,13 @@
         <v>5148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5710,13 +5722,13 @@
         <v>4755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5725,13 +5737,13 @@
         <v>9904</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5811,13 @@
         <v>14802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -5814,13 +5826,13 @@
         <v>17486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -5829,10 +5841,10 @@
         <v>32288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>20</v>
@@ -5850,13 +5862,13 @@
         <v>15266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -5865,13 +5877,13 @@
         <v>18873</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -5880,13 +5892,13 @@
         <v>34140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5954,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5954,13 +5966,13 @@
         <v>16800</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5969,13 +5981,13 @@
         <v>35775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -5984,13 +5996,13 @@
         <v>52576</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6017,13 @@
         <v>21925</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -6020,13 +6032,13 @@
         <v>27108</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6035,13 +6047,13 @@
         <v>49033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6109,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6109,13 +6121,13 @@
         <v>27100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -6124,13 +6136,13 @@
         <v>31925</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -6139,13 +6151,13 @@
         <v>59024</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6172,13 @@
         <v>29659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -6175,13 +6187,13 @@
         <v>30546</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -6190,13 +6202,13 @@
         <v>60205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6276,13 @@
         <v>156863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6279,13 +6291,13 @@
         <v>209775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>514</v>
@@ -6294,13 +6306,13 @@
         <v>366639</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6327,13 @@
         <v>134749</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>256</v>
@@ -6330,13 +6342,13 @@
         <v>169446</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>415</v>
@@ -6345,13 +6357,13 @@
         <v>304195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
